--- a/biology/Microbiologie/Jesse_C._Thompson/Jesse_C._Thompson.xlsx
+++ b/biology/Microbiologie/Jesse_C._Thompson/Jesse_C._Thompson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jesse C. Thompson, aussi connu sous le nom Jesse Clay Thompson, Jr. (? - 25 décembre 2021) est un professeur de biologie américain spécialiste des ciliés.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a travaillé pour le Roanoke College (Salem (Virginie), États-Unis).
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Thompson J.C., 1964. A redescription of Uronema marinum, and a proposed new family Uronematidae. The Virginia Journal of Science.
 (en) Thompson J.C. &amp; Berger J., 1965. Paranophrys marina n. g., n. sp., a New Ciliate Associated with a Hydroid from the Northeast Pacific (Ciliata: Hymenostomatida). Journal of Protozoology, volume 12, issue 4, pages 527-531 DOI 10.1111/J.1550-7408.1965.TB03252.X.
